--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="93">
   <si>
     <t>password</t>
   </si>
@@ -305,6 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,123 +653,123 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -776,10 +777,10 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
     </row>
@@ -787,10 +788,10 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -798,10 +799,10 @@
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -809,10 +810,10 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -820,10 +821,10 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -831,10 +832,10 @@
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -842,10 +843,10 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -853,10 +854,10 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -864,10 +865,10 @@
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -875,10 +876,10 @@
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -886,10 +887,10 @@
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -897,10 +898,10 @@
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -908,10 +909,10 @@
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -919,10 +920,10 @@
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -930,10 +931,10 @@
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -941,10 +942,10 @@
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -952,10 +953,10 @@
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -963,10 +964,10 @@
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -974,10 +975,10 @@
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -985,10 +986,10 @@
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -996,10 +997,10 @@
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1007,10 +1008,10 @@
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1018,10 +1019,10 @@
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1029,10 +1030,10 @@
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1040,10 +1041,10 @@
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1051,10 +1052,10 @@
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1062,10 +1063,10 @@
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1073,10 +1074,10 @@
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1084,10 +1085,10 @@
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1095,10 +1096,10 @@
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1106,10 +1107,10 @@
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1117,10 +1118,10 @@
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1128,10 +1129,10 @@
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1139,10 +1140,10 @@
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1150,10 +1151,10 @@
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1161,10 +1162,10 @@
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1172,10 +1173,10 @@
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1183,10 +1184,10 @@
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1194,10 +1195,10 @@
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1205,10 +1206,10 @@
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1216,10 +1217,10 @@
       <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1227,10 +1228,10 @@
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1238,10 +1239,10 @@
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1249,10 +1250,10 @@
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1260,10 +1261,10 @@
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1271,10 +1272,10 @@
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1282,10 +1283,10 @@
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1293,10 +1294,10 @@
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1304,10 +1305,10 @@
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1315,10 +1316,10 @@
       <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1326,10 +1327,10 @@
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1337,10 +1338,10 @@
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1348,10 +1349,10 @@
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1359,10 +1360,10 @@
       <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1370,10 +1371,10 @@
       <c r="A67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1381,10 +1382,10 @@
       <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1392,10 +1393,10 @@
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1403,10 +1404,10 @@
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1414,10 +1415,10 @@
       <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1425,10 +1426,10 @@
       <c r="A72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1436,10 +1437,10 @@
       <c r="A73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1447,10 +1448,10 @@
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1458,10 +1459,10 @@
       <c r="A75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1469,10 +1470,10 @@
       <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1480,10 +1481,10 @@
       <c r="A77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1491,10 +1492,10 @@
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1502,10 +1503,10 @@
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1513,10 +1514,10 @@
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1524,10 +1525,10 @@
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1535,10 +1536,10 @@
       <c r="A82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1546,10 +1547,10 @@
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1557,10 +1558,10 @@
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1568,10 +1569,10 @@
       <c r="A85" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1579,10 +1580,10 @@
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1590,10 +1591,10 @@
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1601,10 +1602,10 @@
       <c r="A88" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s" s="0">
         <v>3</v>
       </c>
     </row>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="94">
   <si>
     <t>password</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>AKY013</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
         <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>2</v>
@@ -668,7 +671,7 @@
         <v>83</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4179" uniqueCount="94">
   <si>
     <t>password</t>
   </si>
@@ -1606,7 +1606,7 @@
         <v>79</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>3</v>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="94">
   <si>
     <t>password</t>
   </si>
@@ -660,7 +660,7 @@
         <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>2</v>
@@ -1606,7 +1606,7 @@
         <v>79</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>3</v>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="94">
   <si>
     <t>password</t>
   </si>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7572" uniqueCount="94">
   <si>
     <t>password</t>
   </si>
@@ -1606,7 +1606,7 @@
         <v>79</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>3</v>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7572" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="95">
   <si>
     <t>password</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
         <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>2</v>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F92A67-F248-440A-BFAF-A467DAFABF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7CB4F3-D191-41CF-A0CF-53099B61EFB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="93">
   <si>
     <t>password</t>
   </si>
@@ -299,19 +299,12 @@
   </si>
   <si>
     <t>AKY013</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,12 +635,12 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -658,960 +651,960 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>87</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B38" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B46" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B48" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B49" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B51" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B52" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B53" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B54" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B55" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B56" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B57" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B58" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B59" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B60" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B61" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B62" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B63" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B64" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B65" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B66" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B67" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B69" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B71" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B72" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B73" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B74" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B75" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B76" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B77" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B78" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B79" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B80" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B81" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B82" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B83" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B84" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B85" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B86" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B87" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B88" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s" s="0">
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
         <v>3</v>
       </c>
     </row>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9660" uniqueCount="96">
   <si>
     <t>password</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>ychern</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
         <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>2</v>
@@ -685,7 +688,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>2</v>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="93">
   <si>
     <t>password</t>
   </si>
@@ -296,12 +296,16 @@
   </si>
   <si>
     <t>AKY013</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,959 +646,959 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s" s="0">
         <v>2</v>
       </c>
     </row>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E201799-298B-4530-A85E-E50260AEFE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111DC0C4-1580-4C2A-8719-F1BC29A9472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>password</t>
   </si>
@@ -296,16 +296,12 @@
   </si>
   <si>
     <t>AKY013</t>
-  </si>
-  <si>
-    <t>default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:C89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,959 +642,959 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>90</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s" s="0">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s" s="0">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s" s="0">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s" s="0">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s" s="0">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s" s="0">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s" s="0">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s" s="0">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s" s="0">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s" s="0">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s" s="0">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s" s="0">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s" s="0">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s" s="0">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s" s="0">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s" s="0">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s" s="0">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s" s="0">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s" s="0">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="B37" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s" s="0">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>29</v>
       </c>
-      <c r="B38" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s" s="0">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s" s="0">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s" s="0">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>32</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s" s="0">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>33</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s" s="0">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>34</v>
       </c>
-      <c r="B43" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s" s="0">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>35</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s" s="0">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s" s="0">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="B46" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s" s="0">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="B47" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s" s="0">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s" s="0">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s" s="0">
+      <c r="A49" t="s">
         <v>39</v>
       </c>
-      <c r="B49" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s" s="0">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>40</v>
       </c>
-      <c r="B50" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s" s="0">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s" s="0">
+      <c r="A51" t="s">
         <v>41</v>
       </c>
-      <c r="B51" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s" s="0">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s" s="0">
+      <c r="A52" t="s">
         <v>42</v>
       </c>
-      <c r="B52" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s" s="0">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s" s="0">
+      <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B53" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s" s="0">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s" s="0">
+      <c r="A54" t="s">
         <v>44</v>
       </c>
-      <c r="B54" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s" s="0">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s" s="0">
+      <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B55" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s" s="0">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s" s="0">
+      <c r="A56" t="s">
         <v>46</v>
       </c>
-      <c r="B56" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s" s="0">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s" s="0">
+      <c r="A57" t="s">
         <v>47</v>
       </c>
-      <c r="B57" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s" s="0">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s" s="0">
+      <c r="A58" t="s">
         <v>48</v>
       </c>
-      <c r="B58" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s" s="0">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s" s="0">
+      <c r="A59" t="s">
         <v>49</v>
       </c>
-      <c r="B59" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s" s="0">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s" s="0">
+      <c r="A60" t="s">
         <v>50</v>
       </c>
-      <c r="B60" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s" s="0">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s" s="0">
+      <c r="A61" t="s">
         <v>51</v>
       </c>
-      <c r="B61" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s" s="0">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s" s="0">
+      <c r="A62" t="s">
         <v>52</v>
       </c>
-      <c r="B62" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s" s="0">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s" s="0">
+      <c r="A63" t="s">
         <v>53</v>
       </c>
-      <c r="B63" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s" s="0">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s" s="0">
+      <c r="A64" t="s">
         <v>54</v>
       </c>
-      <c r="B64" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s" s="0">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s" s="0">
+      <c r="A65" t="s">
         <v>55</v>
       </c>
-      <c r="B65" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s" s="0">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s" s="0">
+      <c r="A66" t="s">
         <v>56</v>
       </c>
-      <c r="B66" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s" s="0">
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s" s="0">
+      <c r="A67" t="s">
         <v>57</v>
       </c>
-      <c r="B67" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s" s="0">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s" s="0">
+      <c r="A68" t="s">
         <v>58</v>
       </c>
-      <c r="B68" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s" s="0">
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s" s="0">
+      <c r="A69" t="s">
         <v>59</v>
       </c>
-      <c r="B69" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s" s="0">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s" s="0">
+      <c r="A70" t="s">
         <v>60</v>
       </c>
-      <c r="B70" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s" s="0">
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s" s="0">
+      <c r="A71" t="s">
         <v>61</v>
       </c>
-      <c r="B71" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s" s="0">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s" s="0">
+      <c r="A72" t="s">
         <v>62</v>
       </c>
-      <c r="B72" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s" s="0">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s" s="0">
+      <c r="A73" t="s">
         <v>63</v>
       </c>
-      <c r="B73" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s" s="0">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s" s="0">
+      <c r="A74" t="s">
         <v>64</v>
       </c>
-      <c r="B74" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s" s="0">
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s" s="0">
+      <c r="A75" t="s">
         <v>65</v>
       </c>
-      <c r="B75" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s" s="0">
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s" s="0">
+      <c r="A76" t="s">
         <v>66</v>
       </c>
-      <c r="B76" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s" s="0">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s" s="0">
+      <c r="A77" t="s">
         <v>67</v>
       </c>
-      <c r="B77" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s" s="0">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s" s="0">
+      <c r="A78" t="s">
         <v>68</v>
       </c>
-      <c r="B78" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s" s="0">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s" s="0">
+      <c r="A79" t="s">
         <v>69</v>
       </c>
-      <c r="B79" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s" s="0">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s" s="0">
+      <c r="A80" t="s">
         <v>70</v>
       </c>
-      <c r="B80" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s" s="0">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s" s="0">
+      <c r="A81" t="s">
         <v>71</v>
       </c>
-      <c r="B81" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s" s="0">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s" s="0">
+      <c r="A82" t="s">
         <v>72</v>
       </c>
-      <c r="B82" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s" s="0">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s" s="0">
+      <c r="A83" t="s">
         <v>73</v>
       </c>
-      <c r="B83" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s" s="0">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s" s="0">
+      <c r="A84" t="s">
         <v>74</v>
       </c>
-      <c r="B84" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s" s="0">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s" s="0">
+      <c r="A85" t="s">
         <v>75</v>
       </c>
-      <c r="B85" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C85" t="s" s="0">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s" s="0">
+      <c r="A86" t="s">
         <v>76</v>
       </c>
-      <c r="B86" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s" s="0">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s" s="0">
+      <c r="A87" t="s">
         <v>77</v>
       </c>
-      <c r="B87" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s" s="0">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s" s="0">
+      <c r="A88" t="s">
         <v>78</v>
       </c>
-      <c r="B88" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s" s="0">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
         <v>2</v>
       </c>
     </row>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="94">
   <si>
     <t>password</t>
   </si>
@@ -299,12 +299,16 @@
   </si>
   <si>
     <t>AKY013</t>
+  </si>
+  <si>
+    <t>passwor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,123 +656,123 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -776,10 +780,10 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
     </row>
@@ -787,10 +791,10 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -798,10 +802,10 @@
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -809,10 +813,10 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -820,10 +824,10 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -831,10 +835,10 @@
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -842,10 +846,10 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -853,10 +857,10 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -864,10 +868,10 @@
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -875,10 +879,10 @@
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -886,10 +890,10 @@
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -897,10 +901,10 @@
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -908,10 +912,10 @@
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -919,10 +923,10 @@
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -930,10 +934,10 @@
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -941,10 +945,10 @@
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -952,10 +956,10 @@
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -963,10 +967,10 @@
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -974,10 +978,10 @@
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -985,10 +989,10 @@
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -996,10 +1000,10 @@
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1007,10 +1011,10 @@
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1018,10 +1022,10 @@
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1029,10 +1033,10 @@
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1040,10 +1044,10 @@
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1051,10 +1055,10 @@
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1062,10 +1066,10 @@
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1073,10 +1077,10 @@
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1084,10 +1088,10 @@
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1095,10 +1099,10 @@
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1106,10 +1110,10 @@
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1117,10 +1121,10 @@
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1128,10 +1132,10 @@
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1139,10 +1143,10 @@
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1150,10 +1154,10 @@
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1161,10 +1165,10 @@
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1172,10 +1176,10 @@
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1183,10 +1187,10 @@
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1194,10 +1198,10 @@
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1205,10 +1209,10 @@
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1216,10 +1220,10 @@
       <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1227,10 +1231,10 @@
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1238,10 +1242,10 @@
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1249,10 +1253,10 @@
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1260,10 +1264,10 @@
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1271,10 +1275,10 @@
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1282,10 +1286,10 @@
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1293,10 +1297,10 @@
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1304,10 +1308,10 @@
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1315,10 +1319,10 @@
       <c r="A62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1326,10 +1330,10 @@
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1337,10 +1341,10 @@
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1348,10 +1352,10 @@
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1359,10 +1363,10 @@
       <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1370,10 +1374,10 @@
       <c r="A67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1381,10 +1385,10 @@
       <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1392,10 +1396,10 @@
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1403,10 +1407,10 @@
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1414,10 +1418,10 @@
       <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1425,10 +1429,10 @@
       <c r="A72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1436,10 +1440,10 @@
       <c r="A73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1447,10 +1451,10 @@
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1458,10 +1462,10 @@
       <c r="A75" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1469,10 +1473,10 @@
       <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1480,10 +1484,10 @@
       <c r="A77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1491,10 +1495,10 @@
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1502,10 +1506,10 @@
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1513,10 +1517,10 @@
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1524,10 +1528,10 @@
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1535,10 +1539,10 @@
       <c r="A82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1546,10 +1550,10 @@
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1557,10 +1561,10 @@
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1568,10 +1572,10 @@
       <c r="A85" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1579,10 +1583,10 @@
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1590,10 +1594,10 @@
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -1601,10 +1605,10 @@
       <c r="A88" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s" s="0">
         <v>3</v>
       </c>
     </row>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7CB4F3-D191-41CF-A0CF-53099B61EFB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2456B2-3536-40AB-B14A-859490BCA869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="93">
   <si>
     <t>password</t>
   </si>
@@ -299,29 +299,19 @@
   </si>
   <si>
     <t>AKY013</t>
-  </si>
-  <si>
-    <t>passwor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -352,10 +342,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,977 +627,977 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>87</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
-      <c r="B38" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>37</v>
       </c>
-      <c r="B46" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>39</v>
       </c>
-      <c r="B48" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>40</v>
       </c>
-      <c r="B49" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>42</v>
       </c>
-      <c r="B51" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>43</v>
       </c>
-      <c r="B52" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>44</v>
       </c>
-      <c r="B53" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>45</v>
       </c>
-      <c r="B54" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>46</v>
       </c>
-      <c r="B55" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>47</v>
       </c>
-      <c r="B56" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>48</v>
       </c>
-      <c r="B57" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>49</v>
       </c>
-      <c r="B58" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="B59" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>51</v>
       </c>
-      <c r="B60" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>52</v>
       </c>
-      <c r="B61" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>53</v>
       </c>
-      <c r="B62" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>54</v>
       </c>
-      <c r="B63" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>55</v>
       </c>
-      <c r="B64" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B65" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>57</v>
       </c>
-      <c r="B66" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>58</v>
       </c>
-      <c r="B67" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>60</v>
       </c>
-      <c r="B69" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>62</v>
       </c>
-      <c r="B71" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>63</v>
       </c>
-      <c r="B72" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>64</v>
       </c>
-      <c r="B73" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>65</v>
       </c>
-      <c r="B74" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>66</v>
       </c>
-      <c r="B75" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>67</v>
       </c>
-      <c r="B76" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>68</v>
       </c>
-      <c r="B77" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>69</v>
       </c>
-      <c r="B78" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>70</v>
       </c>
-      <c r="B79" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>71</v>
       </c>
-      <c r="B80" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>72</v>
       </c>
-      <c r="B81" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>73</v>
       </c>
-      <c r="B82" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>74</v>
       </c>
-      <c r="B83" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>75</v>
       </c>
-      <c r="B84" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>76</v>
       </c>
-      <c r="B85" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>77</v>
       </c>
-      <c r="B86" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>78</v>
       </c>
-      <c r="B87" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>79</v>
       </c>
-      <c r="B88" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s" s="0">
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
         <v>3</v>
       </c>
     </row>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="93">
   <si>
     <t>password</t>
   </si>
@@ -305,6 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,959 +646,959 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s" s="0">
         <v>3</v>
       </c>
     </row>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="93">
   <si>
     <t>password</t>
   </si>
@@ -650,7 +650,7 @@
         <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>2</v>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="94">
   <si>
     <t>password</t>
   </si>
@@ -296,12 +296,19 @@
   </si>
   <si>
     <t>AKY013</t>
+  </si>
+  <si>
+    <t>TWEE005</t>
+  </si>
+  <si>
+    <t>password2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B88"/>
@@ -642,960 +649,971 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2</v>
+      <c r="B88" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/account_list.xlsx
+++ b/App/data/account_list.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="93">
   <si>
     <t>password</t>
   </si>
@@ -296,12 +296,16 @@
   </si>
   <si>
     <t>AKY013</t>
+  </si>
+  <si>
+    <t>johnson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B88"/>
@@ -642,960 +646,971 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2</v>
+      <c r="B88" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
